--- a/script/template.xlsx
+++ b/script/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Python\fizra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Python\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD7BB05-D5AB-42DC-BA7F-25455E2ADB44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B96C369-5E05-431A-BC22-ECD8BF44413A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="d6DoR7JkhwRjJyumnd3L3H66JX6VI6O8jV8yl7GFHnKtUJvyRhC6zrgrIg5seN6Ugy84glhQPM8jSCHZ/fKHFw==" workbookSaltValue="VdGltRoEJxd5z+AdAITwyA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>ФИО</t>
   </si>
@@ -69,12 +69,6 @@
   </si>
   <si>
     <t>Номер занятия в семестре</t>
-  </si>
-  <si>
-    <t>Волейбол</t>
-  </si>
-  <si>
-    <t>Лемешевская А.Л.</t>
   </si>
 </sst>
 </file>
@@ -653,19 +647,81 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -681,15 +737,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -704,59 +751,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1100,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:F4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1122,107 +1116,99 @@
   <sheetData>
     <row r="1" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
     </row>
     <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
       <c r="G3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59" t="s">
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="59"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
     </row>
     <row r="4" spans="1:19" s="2" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
-      <c r="B4" s="11">
-        <v>36212</v>
-      </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="12">
-        <v>362</v>
-      </c>
-      <c r="H4" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="60"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="64"/>
-      <c r="S4" s="64"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
     </row>
     <row r="5" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
@@ -1238,12 +1224,12 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
     </row>
     <row r="6" spans="1:19" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6"/>
@@ -1259,12 +1245,12 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
@@ -1275,7 +1261,7 @@
       <c r="D7" s="34"/>
       <c r="E7" s="34"/>
       <c r="F7" s="35"/>
-      <c r="G7" s="44"/>
+      <c r="G7" s="63"/>
       <c r="H7" s="33" t="s">
         <v>13</v>
       </c>
@@ -1283,69 +1269,69 @@
       <c r="J7" s="34"/>
       <c r="K7" s="34"/>
       <c r="L7" s="35"/>
-      <c r="M7" s="44"/>
+      <c r="M7" s="63"/>
       <c r="N7" s="33"/>
       <c r="O7" s="34"/>
       <c r="P7" s="34"/>
       <c r="Q7" s="34"/>
       <c r="R7" s="35"/>
-      <c r="S7" s="44"/>
+      <c r="S7" s="63"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="67"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="50"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
-      <c r="G8" s="45"/>
+      <c r="G8" s="64"/>
       <c r="H8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="66"/>
-      <c r="J8" s="67"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="50"/>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
-      <c r="M8" s="45"/>
+      <c r="M8" s="64"/>
       <c r="N8" s="17"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="54"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="52"/>
       <c r="Q8" s="18"/>
       <c r="R8" s="18"/>
-      <c r="S8" s="45"/>
+      <c r="S8" s="64"/>
     </row>
     <row r="9" spans="1:19" s="4" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19"/>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
       <c r="F9" s="20" t="s">
         <v>5</v>
       </c>
       <c r="G9" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="49" t="s">
+      <c r="H9" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
       <c r="L9" s="20" t="s">
         <v>5</v>
       </c>
       <c r="M9" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="49"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
       <c r="R9" s="20"/>
       <c r="S9" s="21"/>
     </row>
@@ -1353,22 +1339,22 @@
       <c r="A10" s="6">
         <v>1</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
       <c r="F10" s="22"/>
       <c r="G10" s="23"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
       <c r="L10" s="22"/>
       <c r="M10" s="24"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
       <c r="R10" s="22"/>
       <c r="S10" s="24"/>
     </row>
@@ -1376,22 +1362,22 @@
       <c r="A11" s="6">
         <v>2</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
       <c r="F11" s="18"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
       <c r="L11" s="18"/>
       <c r="M11" s="25"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
       <c r="R11" s="18"/>
       <c r="S11" s="25"/>
     </row>
@@ -1399,22 +1385,22 @@
       <c r="A12" s="6">
         <v>3</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
       <c r="F12" s="18"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
       <c r="L12" s="18"/>
       <c r="M12" s="25"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
       <c r="R12" s="18"/>
       <c r="S12" s="25"/>
     </row>
@@ -1422,22 +1408,22 @@
       <c r="A13" s="6">
         <v>4</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
       <c r="F13" s="18"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
       <c r="L13" s="18"/>
       <c r="M13" s="25"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
       <c r="R13" s="18"/>
       <c r="S13" s="25"/>
     </row>
@@ -1445,22 +1431,22 @@
       <c r="A14" s="6">
         <v>5</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
       <c r="F14" s="18"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
       <c r="L14" s="18"/>
       <c r="M14" s="25"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
       <c r="R14" s="18"/>
       <c r="S14" s="25"/>
     </row>
@@ -1468,22 +1454,22 @@
       <c r="A15" s="6">
         <v>6</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
       <c r="F15" s="18"/>
       <c r="G15" s="25"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
       <c r="L15" s="18"/>
       <c r="M15" s="25"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
       <c r="R15" s="18"/>
       <c r="S15" s="25"/>
     </row>
@@ -1491,22 +1477,22 @@
       <c r="A16" s="6">
         <v>7</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
       <c r="F16" s="18"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
       <c r="L16" s="18"/>
       <c r="M16" s="25"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
       <c r="R16" s="18"/>
       <c r="S16" s="25"/>
     </row>
@@ -1514,22 +1500,22 @@
       <c r="A17" s="6">
         <v>8</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
       <c r="F17" s="18"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
       <c r="L17" s="18"/>
       <c r="M17" s="25"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
       <c r="R17" s="18"/>
       <c r="S17" s="25"/>
     </row>
@@ -1537,22 +1523,22 @@
       <c r="A18" s="6">
         <v>9</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
       <c r="F18" s="18"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
       <c r="L18" s="18"/>
       <c r="M18" s="25"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
       <c r="R18" s="18"/>
       <c r="S18" s="25"/>
     </row>
@@ -1560,22 +1546,22 @@
       <c r="A19" s="6">
         <v>10</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
       <c r="F19" s="18"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
       <c r="L19" s="18"/>
       <c r="M19" s="25"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
       <c r="R19" s="18"/>
       <c r="S19" s="25"/>
     </row>
@@ -1583,22 +1569,22 @@
       <c r="A20" s="6">
         <v>11</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
       <c r="F20" s="18"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
       <c r="L20" s="18"/>
       <c r="M20" s="25"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
       <c r="R20" s="18"/>
       <c r="S20" s="25"/>
     </row>
@@ -1606,22 +1592,22 @@
       <c r="A21" s="6">
         <v>12</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
       <c r="F21" s="18"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
       <c r="L21" s="18"/>
       <c r="M21" s="25"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
       <c r="R21" s="18"/>
       <c r="S21" s="25"/>
     </row>
@@ -1629,22 +1615,22 @@
       <c r="A22" s="6">
         <v>13</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
       <c r="F22" s="18"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
       <c r="L22" s="18"/>
       <c r="M22" s="25"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
       <c r="R22" s="18"/>
       <c r="S22" s="25"/>
     </row>
@@ -1652,22 +1638,22 @@
       <c r="A23" s="6">
         <v>14</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
       <c r="F23" s="18"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
       <c r="L23" s="18"/>
       <c r="M23" s="25"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
       <c r="R23" s="18"/>
       <c r="S23" s="25"/>
     </row>
@@ -1675,22 +1661,22 @@
       <c r="A24" s="6">
         <v>15</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
       <c r="F24" s="18"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
       <c r="L24" s="18"/>
       <c r="M24" s="25"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
       <c r="R24" s="18"/>
       <c r="S24" s="25"/>
     </row>
@@ -1698,53 +1684,53 @@
       <c r="A25" s="6">
         <v>16</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
       <c r="F25" s="26"/>
       <c r="G25" s="27"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
       <c r="L25" s="26"/>
       <c r="M25" s="27"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="57"/>
       <c r="R25" s="26"/>
       <c r="S25" s="27"/>
     </row>
     <row r="26" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6"/>
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="39">
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="61">
         <v>90</v>
       </c>
-      <c r="G26" s="40"/>
-      <c r="H26" s="51" t="s">
+      <c r="G26" s="62"/>
+      <c r="H26" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="39">
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="61">
         <v>90</v>
       </c>
-      <c r="M26" s="40"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="40"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="61"/>
+      <c r="S26" s="62"/>
     </row>
     <row r="27" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
@@ -1769,74 +1755,74 @@
     </row>
     <row r="28" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="41" t="s">
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="42"/>
-      <c r="S28" s="43"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="54"/>
+      <c r="S28" s="55"/>
     </row>
     <row r="29" spans="1:19" ht="109.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="46"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="47"/>
-      <c r="R29" s="47"/>
-      <c r="S29" s="48"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="66"/>
+      <c r="M29" s="67"/>
+      <c r="N29" s="65"/>
+      <c r="O29" s="66"/>
+      <c r="P29" s="66"/>
+      <c r="Q29" s="66"/>
+      <c r="R29" s="66"/>
+      <c r="S29" s="67"/>
     </row>
     <row r="30" spans="1:19" ht="256.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6"/>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="36" t="s">
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="37"/>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="37"/>
-      <c r="S30" s="38"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="59"/>
+      <c r="P30" s="59"/>
+      <c r="Q30" s="59"/>
+      <c r="R30" s="59"/>
+      <c r="S30" s="60"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
@@ -1869,37 +1855,45 @@
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="N26:Q26"/>
-    <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="N18:Q18"/>
-    <mergeCell ref="N19:Q19"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="N21:Q21"/>
-    <mergeCell ref="N7:R7"/>
-    <mergeCell ref="N5:S5"/>
-    <mergeCell ref="N6:S6"/>
-    <mergeCell ref="B2:S2"/>
-    <mergeCell ref="B1:S1"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N3:S4"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="N13:Q13"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="N11:Q11"/>
-    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="N16:Q16"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="N30:S30"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="N28:S28"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="N29:S29"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B28:G28"/>
     <mergeCell ref="H17:K17"/>
@@ -1916,45 +1910,37 @@
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="H16:K16"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="N30:S30"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="N28:S28"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="N29:S29"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="N15:Q15"/>
-    <mergeCell ref="N16:Q16"/>
-    <mergeCell ref="N14:Q14"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="N5:S5"/>
+    <mergeCell ref="N6:S6"/>
+    <mergeCell ref="B2:S2"/>
+    <mergeCell ref="B1:S1"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N3:S4"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="N26:Q26"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="N21:Q21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
